--- a/practicandospring/Relacion nuevas tablas.xlsx
+++ b/practicandospring/Relacion nuevas tablas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Shop" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>User</t>
   </si>
@@ -81,6 +81,57 @@
   </si>
   <si>
     <t>o el admin da igual</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>product_name</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>scarts</t>
+  </si>
+  <si>
+    <t>createdProduct</t>
+  </si>
+  <si>
+    <t>DateTimeStamp</t>
+  </si>
+  <si>
+    <t>Double</t>
+  </si>
+  <si>
+    <t>products_id</t>
+  </si>
+  <si>
+    <t>total_order</t>
+  </si>
+  <si>
+    <t>price_products</t>
+  </si>
+  <si>
+    <t>List&lt;Long&gt;</t>
+  </si>
+  <si>
+    <t>List&lt;Doble&gt;</t>
+  </si>
+  <si>
+    <t>quantitys_products</t>
+  </si>
+  <si>
+    <t>List&lt;int&gt;</t>
+  </si>
+  <si>
+    <t>Strings</t>
+  </si>
+  <si>
+    <t>SUSPENDIDO</t>
   </si>
 </sst>
 </file>
@@ -120,7 +171,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -198,11 +249,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -223,6 +292,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -711,17 +799,82 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1"/>
+  <dimension ref="B1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -731,25 +884,131 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:B2"/>
+  <dimension ref="B1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B12:I13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>